--- a/biology/Zoologie/Campagnol_de_Thomas/Campagnol_de_Thomas.xlsx
+++ b/biology/Zoologie/Campagnol_de_Thomas/Campagnol_de_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le campagnol de Thomas (Microtus thomasi) est une espèce de rongeurs de la famille des Cricetidae. Il se trouve en Bosnie-Herzégovine, en Grèce, en Macédoine, au Monténégro, en Serbie et peut-être en Albanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce campagnol préfère les habitats où le sol est suffisamment profonde pour pouvoir creuser des terriers. Cela inclut les prairies, les pâturages sur du calcaire, les prairies de hautes montagnes et parfois sur des sols cultivés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce campagnol préfère les habitats où le sol est suffisamment profonde pour pouvoir creuser des terriers. Cela inclut les prairies, les pâturages sur du calcaire, les prairies de hautes montagnes et parfois sur des sols cultivés.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
